--- a/Assets/Resources/Config/Materiral/Recipe.xlsx
+++ b/Assets/Resources/Config/Materiral/Recipe.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,27 +94,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I:6</t>
-  </si>
-  <si>
-    <t>I:7</t>
-  </si>
-  <si>
-    <t>I:8</t>
-  </si>
-  <si>
-    <t>I:9</t>
-  </si>
-  <si>
-    <t>M:6</t>
-  </si>
-  <si>
-    <t>M:7</t>
-  </si>
-  <si>
-    <t>M:8</t>
-  </si>
-  <si>
     <t>Target</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,12 +152,6 @@
     <t>黑火詹炸弹</t>
   </si>
   <si>
-    <t>I:5</t>
-  </si>
-  <si>
-    <t>M:5</t>
-  </si>
-  <si>
     <t>M:0,1</t>
   </si>
   <si>
@@ -208,12 +181,39 @@
   </si>
   <si>
     <t>Mar3Eft</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>0,7</t>
+  </si>
+  <si>
+    <t>0,8</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>1,6</t>
+  </si>
+  <si>
+    <t>1,7</t>
+  </si>
+  <si>
+    <t>1,8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,7 +431,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -506,6 +506,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -541,6 +558,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,30 +754,30 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +785,7 @@
         <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -790,33 +824,33 @@
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="Q1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="R1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="S1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="T1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="U1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>13</v>
@@ -853,15 +887,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
@@ -876,7 +910,7 @@
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="I3">
         <v>5</v>
@@ -903,15 +937,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>13</v>
@@ -926,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="I4">
         <v>5</v>
@@ -958,15 +992,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>13</v>
@@ -981,7 +1015,7 @@
         <v>5</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1018,48 +1052,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6">
-        <v>5</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -1083,48 +1117,48 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7">
-        <v>5</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>5</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="O7">
         <v>5</v>
@@ -1148,31 +1182,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I8">
         <v>5</v>
       </c>
@@ -1189,7 +1223,7 @@
         <v>5</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="O8">
         <v>5</v>
@@ -1213,31 +1247,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9">
-        <v>5</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="I9">
         <v>5</v>
       </c>
@@ -1254,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="O9">
         <v>5</v>
@@ -1278,31 +1312,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10">
-        <v>5</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I10">
         <v>5</v>
       </c>
@@ -1319,7 +1353,7 @@
         <v>5</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O10">
         <v>5</v>
